--- a/data/trans_orig/P33B_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R2-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>151764</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133450</v>
+        <v>132059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173867</v>
+        <v>173050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2623277886069363</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2306706107989159</v>
+        <v>0.2282662921979899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3005327481164366</v>
+        <v>0.2991198664302944</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>555</v>
@@ -762,19 +762,19 @@
         <v>320393</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>298227</v>
+        <v>299295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>342629</v>
+        <v>342610</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3900977999852169</v>
+        <v>0.390097799985217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3631093002924305</v>
+        <v>0.3644095974615504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4171714217678629</v>
+        <v>0.4171485683482407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>752</v>
@@ -783,19 +783,19 @@
         <v>472158</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>444045</v>
+        <v>443028</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>507641</v>
+        <v>500944</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3372928583801344</v>
+        <v>0.3372928583801343</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.317209983611027</v>
+        <v>0.3164835025809671</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.362640609260632</v>
+        <v>0.3578567414057404</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>426765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404662</v>
+        <v>405479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445079</v>
+        <v>446470</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7376722113930638</v>
+        <v>0.7376722113930639</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6994672518835632</v>
+        <v>0.7008801335697056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.769329389201084</v>
+        <v>0.77173370780201</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>871</v>
@@ -833,19 +833,19 @@
         <v>500922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>478686</v>
+        <v>478705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>523088</v>
+        <v>522020</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.609902200014783</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5828285782321369</v>
+        <v>0.5828514316517591</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6368906997075694</v>
+        <v>0.6355904025384495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1365</v>
@@ -854,19 +854,19 @@
         <v>927687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892204</v>
+        <v>898901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>955800</v>
+        <v>956817</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6627071416198657</v>
+        <v>0.6627071416198655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6373593907393676</v>
+        <v>0.6421432585942595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6827900163889732</v>
+        <v>0.683516497419033</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>260060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>232436</v>
+        <v>230269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>293223</v>
+        <v>292383</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1166456208442254</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1042553027432607</v>
+        <v>0.1032834195392309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1315205834328982</v>
+        <v>0.131143653322514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>601</v>
@@ -979,19 +979,19 @@
         <v>413896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>382393</v>
+        <v>379299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>448261</v>
+        <v>446340</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1906132169296539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.176105231921905</v>
+        <v>0.1746802683793487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2064394019368076</v>
+        <v>0.2055547288083518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>879</v>
@@ -1000,19 +1000,19 @@
         <v>673956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>630414</v>
+        <v>629604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>722951</v>
+        <v>723879</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1531412257195036</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1432473694956261</v>
+        <v>0.1430633807022288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1642743560759933</v>
+        <v>0.1644851764413582</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1969425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1936262</v>
+        <v>1937102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1997049</v>
+        <v>1999216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8833543791557746</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8684794165671017</v>
+        <v>0.8688563466774858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8957446972567393</v>
+        <v>0.8967165804607685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2320</v>
@@ -1050,19 +1050,19 @@
         <v>1757496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1723131</v>
+        <v>1725052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1788999</v>
+        <v>1792093</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8093867830703462</v>
+        <v>0.8093867830703459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7935605980631926</v>
+        <v>0.7944452711916485</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8238947680780953</v>
+        <v>0.8253197316206513</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4033</v>
@@ -1071,19 +1071,19 @@
         <v>3726921</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3677926</v>
+        <v>3676998</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3770463</v>
+        <v>3771273</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8468587742804963</v>
+        <v>0.8468587742804964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8357256439240069</v>
+        <v>0.8355148235586419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8567526305043738</v>
+        <v>0.8569366192977714</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>80897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64906</v>
+        <v>64940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99885</v>
+        <v>101509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1136852071775268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09121296984289208</v>
+        <v>0.09126031164286985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1403687607949207</v>
+        <v>0.1426521923842566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -1196,19 +1196,19 @@
         <v>104761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87344</v>
+        <v>89241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121706</v>
+        <v>122775</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1425560978979588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1188547460493611</v>
+        <v>0.1214365771098014</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1656134591133631</v>
+        <v>0.1670693543159555</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -1217,19 +1217,19 @@
         <v>185658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161232</v>
+        <v>163034</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208891</v>
+        <v>212210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1283530849079342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1114662110038956</v>
+        <v>0.1127120089841185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.144414982587271</v>
+        <v>0.1467096421277237</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>630690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611702</v>
+        <v>610078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>646681</v>
+        <v>646647</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8863147928224731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8596312392050792</v>
+        <v>0.8573478076157434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9087870301571079</v>
+        <v>0.9087396883571301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>853</v>
@@ -1267,19 +1267,19 @@
         <v>630116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613171</v>
+        <v>612102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>647533</v>
+        <v>645636</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8574439021020411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8343865408866368</v>
+        <v>0.8329306456840446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.881145253950639</v>
+        <v>0.8785634228901985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1457</v>
@@ -1288,19 +1288,19 @@
         <v>1260806</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1237573</v>
+        <v>1234254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1285232</v>
+        <v>1283430</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8716469150920659</v>
+        <v>0.8716469150920657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.855585017412729</v>
+        <v>0.8532903578722764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8885337889961047</v>
+        <v>0.8872879910158815</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>492721</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>452926</v>
+        <v>454525</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>533346</v>
+        <v>536503</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.139993388918494</v>
+        <v>0.1399933889184939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1286868279788759</v>
+        <v>0.1291411078987846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.151535926163149</v>
+        <v>0.1524328066630489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1307</v>
@@ -1413,19 +1413,19 @@
         <v>839051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>792851</v>
+        <v>794123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>882215</v>
+        <v>881409</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2250922800437283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2126982026732717</v>
+        <v>0.213039529349938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2366721096153335</v>
+        <v>0.2364558881244587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1859</v>
@@ -1434,19 +1434,19 @@
         <v>1331771</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1273045</v>
+        <v>1273696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1395263</v>
+        <v>1389056</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1837639409905401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1756605405871834</v>
+        <v>0.1757504041927059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1925247726760599</v>
+        <v>0.191668268694807</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3026880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2986255</v>
+        <v>2983098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3066675</v>
+        <v>3065076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8600066110815059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8484640738368509</v>
+        <v>0.8475671933369512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8713131720211241</v>
+        <v>0.8708588921012156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4044</v>
@@ -1484,19 +1484,19 @@
         <v>2888534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2845370</v>
+        <v>2846176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2934734</v>
+        <v>2933462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7749077199562716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7633278903846665</v>
+        <v>0.7635441118755415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7873017973267286</v>
+        <v>0.786960470650062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6855</v>
@@ -1505,19 +1505,19 @@
         <v>5915415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5851923</v>
+        <v>5858130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5974141</v>
+        <v>5973490</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8162360590094599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8074752273239401</v>
+        <v>0.808331731305193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8243394594128173</v>
+        <v>0.8242495958072942</v>
       </c>
     </row>
     <row r="15">
